--- a/Бонд 6.xlsx
+++ b/Бонд 6.xlsx
@@ -4,15 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12660" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ведомость переоценки" sheetId="1" r:id="rId1"/>
     <sheet name="Диаграмма" sheetId="4" r:id="rId2"/>
     <sheet name="Отчетная ведомость" sheetId="2" r:id="rId3"/>
     <sheet name="Ведомость зарплаты " sheetId="3" r:id="rId4"/>
+    <sheet name="Диаграмма 2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -224,9 +236,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="#,###.00&quot; тыс.руб.&quot;"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,###.00&quot; тыс.руб.&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -265,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -288,23 +301,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -313,26 +360,95 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor theme="3"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -382,6 +498,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'Ведомость переоценки'!$A$6:$A$11</c:f>
@@ -435,6 +558,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FE7-47FB-B873-2E60EAD1BC00}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -450,6 +578,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'Ведомость переоценки'!$A$6:$A$11</c:f>
@@ -503,6 +638,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FE7-47FB-B873-2E60EAD1BC00}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -518,6 +658,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'Ведомость переоценки'!$A$6:$A$11</c:f>
@@ -571,32 +719,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4FE7-47FB-B873-2E60EAD1BC00}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="138766976"/>
-        <c:axId val="145823232"/>
+        <c:axId val="128381696"/>
+        <c:axId val="128383232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138766976"/>
+        <c:axId val="128381696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145823232"/>
+        <c:crossAx val="128383232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145823232"/>
+        <c:axId val="128383232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138766976"/>
+        <c:crossAx val="128381696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -604,11 +758,23 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:spPr>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
-    <a:ln w="15875"/>
+    <a:ln w="15875">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
     <a:effectLst/>
   </c:spPr>
 </c:chartSpace>
@@ -618,6 +784,28 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Данные</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> о работе компьютерных клубов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -628,10 +816,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.4677130397546053E-4"/>
-          <c:y val="0.17127223680373288"/>
-          <c:w val="0.84244371229400983"/>
-          <c:h val="0.67559018664333625"/>
+          <c:x val="7.0522252829851376E-2"/>
+          <c:y val="0.1501081809218292"/>
+          <c:w val="0.84244371229400994"/>
+          <c:h val="0.67559018664333637"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -640,6 +828,22 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:explosion val="25"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Отчетная ведомость'!$A$2:$A$11</c:f>
@@ -717,9 +921,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0639-4927-BC71-D8D0EE432D58}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showVal val="1"/>
         </c:dLbls>
       </c:pie3DChart>
@@ -727,14 +935,383 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>Сравнительная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1" baseline="0"/>
+              <a:t> диаграмма заработной платы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showVal val="1"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ведомость зарплаты '!$B$5:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Антонов Р.И.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Борисов И.П.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вольская О.А.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Иванов В.А.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Комаров Н.И.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Крючков Н.Р.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Новиков Л.Д.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Огарев Н.И.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Петров К.О.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Реутова Е.Г.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Сидоров И.Н.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Степанков В.Д.</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Тимофеев Н.Н.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Уткина Е.В.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Федоов А.Н.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ведомость зарплаты '!$K$5:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "₽"</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15858.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28514.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26303.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15858.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32818.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29714.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26830.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25160.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31556.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28514.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17299.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29714.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25160.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30281.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADCC-4973-B1AC-3093AF2F91AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="142061952"/>
+        <c:axId val="142063488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="142061952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="142063488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="142063488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.00\ &quot;₽&quot;" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="142061952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
 </file>
 
@@ -742,7 +1319,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -753,10 +1341,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -781,19 +1375,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -808,6 +1408,33 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9297865" cy="6074019"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1099,7 +1726,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1113,41 +1740,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="60">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
@@ -1174,7 +1801,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
@@ -1184,15 +1811,15 @@
         <v>203.1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D11" si="0">B5-C5</f>
+        <f t="shared" ref="D5:D10" si="0">B5-C5</f>
         <v>204.1</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ref="E5:E10" si="1">IF(B5&lt;=700,3.3,IF(B5&lt;700,4.2,IF(B5&lt;1000,4.2,IF(B5&gt;=1000,5.1,))))</f>
+        <f t="shared" ref="E5:E9" si="1">IF(B5&lt;=700,3.3,IF(B5&lt;700,4.2,IF(B5&lt;1000,4.2,IF(B5&gt;=1000,5.1,))))</f>
         <v>3.3</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F11" si="2">B5*E5</f>
+        <f t="shared" ref="F5:F10" si="2">B5*E5</f>
         <v>1343.76</v>
       </c>
       <c r="G5" s="3">
@@ -1201,7 +1828,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
@@ -1228,7 +1855,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
@@ -1255,7 +1882,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
@@ -1282,7 +1909,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
@@ -1309,7 +1936,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2">
@@ -1323,7 +1950,7 @@
         <v>596.69999999999993</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(B10&lt;=700,3.3,IF(B10&lt;700,4.2,IF(B10&lt;1000,4.2,IF(B10&gt;=1000,5.1,))))</f>
         <v>4.2</v>
       </c>
       <c r="F10" s="3">
@@ -1336,7 +1963,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
@@ -1346,7 +1973,7 @@
         <v>148.69999999999999</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f>B11-C11</f>
         <v>465.59999999999997</v>
       </c>
       <c r="E11" s="3">
@@ -1354,7 +1981,7 @@
         <v>3.3</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
+        <f>B11*E11</f>
         <v>2027.1899999999998</v>
       </c>
       <c r="G11" s="3">
@@ -1363,7 +1990,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
@@ -1401,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1413,9 +2040,10 @@
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,332 +2070,332 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>345000</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>543000</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>423000</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>SUM(B2:D2)</f>
         <v>1311000</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="7">
         <f>RANK(E2,$E$2:$E$12,1)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <f>AVERAGE(B2:D2)</f>
         <v>437000</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <f>E2/$E$12*100%</f>
         <v>6.4406779661016947E-2</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>657000</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>234000</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>453000</v>
       </c>
-      <c r="E3" s="11">
-        <f t="shared" ref="E3:E12" si="0">SUM(B3:D3)</f>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E11" si="0">SUM(B3:D3)</f>
         <v>1344000</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F11" si="1">RANK(E3,$E$2:$E$12,1)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G12" si="2">AVERAGE(B3:D3)</f>
         <v>448000</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H12" si="3">E3/$E$12*100%</f>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H11" si="3">E3/$E$12*100%</f>
         <v>6.6028002947678702E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>765000</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>904000</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>856000</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>2525000</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f t="shared" si="2"/>
         <v>841666.66666666663</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f t="shared" si="3"/>
         <v>0.12404814541881602</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>798000</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>735000</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>654000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>2187000</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f t="shared" si="2"/>
         <v>729000</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f t="shared" si="3"/>
         <v>0.10744288872512896</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>879000</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>984000</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>971000</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>2834000</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f t="shared" si="2"/>
         <v>944666.66666666663</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" si="3"/>
         <v>0.13922869073937608</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>375000</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>594000</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>512000</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>1481000</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f t="shared" si="2"/>
         <v>493666.66666666669</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f t="shared" si="3"/>
         <v>7.2758535986244169E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>912000</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>634000</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>879000</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>2425000</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f t="shared" si="2"/>
         <v>808333.33333333337</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f t="shared" si="3"/>
         <v>0.11913534758044707</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>467000</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>593000</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>598000</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>1658000</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f t="shared" si="2"/>
         <v>552666.66666666663</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f t="shared" si="3"/>
         <v>8.1454188160157204E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>1003000</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>945000</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>877000</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>2825000</v>
       </c>
-      <c r="F10" s="11">
-        <f t="shared" si="1"/>
+      <c r="F10" s="7">
+        <f>RANK(E10,$E$2:$E$12,1)</f>
         <v>9</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f t="shared" si="2"/>
         <v>941666.66666666663</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f t="shared" si="3"/>
         <v>0.13878653893392287</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>545000</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>567000</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>653000</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>1765000</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f t="shared" si="2"/>
         <v>588333.33333333337</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f t="shared" si="3"/>
         <v>8.6710881847211985E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <f>SUM(B2:B11)</f>
         <v>6746000</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f>SUM(C2:C11)</f>
         <v>6733000</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f>SUM(D2:D11)</f>
         <v>6876000</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" si="0"/>
+      <c r="E12" s="10">
+        <f>SUM(B12:D12)</f>
         <v>20355000</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <f t="shared" si="2"/>
         <v>6785000</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1778,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1791,412 +2419,748 @@
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="30">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="30">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="13">
+    <row r="5" spans="1:11">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14">
+      <c r="D5" s="11">
+        <f>IF(C5="лаборант",15670, IF(C5="инженер",28500, IF(C5="мл.н.сотрудник",25700, IF(C5="ст.н.сотрудник",29700, IF(C5="зав.лабораторией",31500,"")))))</f>
+        <v>15670</v>
+      </c>
+      <c r="E5" s="17">
         <v>2</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="13">
+      <c r="F5" s="8">
+        <f>IF(E5&lt;=5,0.1,IF(E5&lt;=7,0.15,IF(E5&lt;=10,0.2,IF(E5&lt;=15,0.25,0.3))))</f>
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="11">
+        <f>D5*F5</f>
+        <v>1567</v>
+      </c>
+      <c r="H5" s="11">
+        <f>D5+G5</f>
+        <v>17237</v>
+      </c>
+      <c r="I5" s="8">
+        <f>IF(H5&lt;=20000,0.08,IF(H5&lt;=30000,0.11,IF(H5&lt;=35000,0.13,0.15)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="J5" s="11">
+        <f>H5*I5</f>
+        <v>1378.96</v>
+      </c>
+      <c r="K5" s="11">
+        <f>H5-J5</f>
+        <v>15858.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14">
+      <c r="D6" s="11">
+        <f>IF(C6="лаборант",15670, IF(C6="инженер",28500, IF(C6="мл.н.сотрудник",25700, IF(C6="ст.н.сотрудник",29700, IF(C6="зав.лабораторией",31500,"")))))</f>
+        <v>28500</v>
+      </c>
+      <c r="E6" s="17">
         <v>6</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13">
+      <c r="F6" s="8">
+        <f>IF(E6&lt;=5,0.1,IF(E6&lt;=7,0.15,IF(E6&lt;=10,0.2,IF(E6&lt;=15,0.25,0.3))))</f>
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" ref="G6:G19" si="0">D6*F6</f>
+        <v>4275</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H19" si="1">D6+G6</f>
+        <v>32775</v>
+      </c>
+      <c r="I6" s="8">
+        <f>IF(H6&lt;=20000,0.08,IF(H6&lt;=30000,0.11,IF(H6&lt;=35000,0.13,0.15)))</f>
+        <v>0.13</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" ref="J6:J19" si="2">H6*I6</f>
+        <v>4260.75</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" ref="K6:K19" si="3">H6-J6</f>
+        <v>28514.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14">
+      <c r="D7" s="11">
+        <f t="shared" ref="D7:D18" si="4">IF(C7="лаборант",15670, IF(C7="инженер",28500, IF(C7="мл.н.сотрудник",25700, IF(C7="ст.н.сотрудник",29700, IF(C7="зав.лабораторией",31500,"")))))</f>
+        <v>25700</v>
+      </c>
+      <c r="E7" s="17">
         <v>7</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="13">
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F19" si="5">IF(E7&lt;=5,0.1,IF(E7&lt;=7,0.15,IF(E7&lt;=10,0.2,IF(E7&lt;=15,0.25,0.3))))</f>
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>3855</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>29555</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I19" si="6">IF(H7&lt;=20000,0.08,IF(H7&lt;=30000,0.11,IF(H7&lt;=35000,0.13,0.15)))</f>
+        <v>0.11</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="2"/>
+        <v>3251.05</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="3"/>
+        <v>26303.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14">
+      <c r="D8" s="11">
+        <f t="shared" si="4"/>
+        <v>15670</v>
+      </c>
+      <c r="E8" s="17">
         <v>4</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="13">
+      <c r="F8" s="8">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>1567</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>17237</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="2"/>
+        <v>1378.96</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="3"/>
+        <v>15858.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14">
+      <c r="D9" s="11">
+        <f t="shared" si="4"/>
+        <v>29700</v>
+      </c>
+      <c r="E9" s="17">
         <v>16</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="13">
+      <c r="F9" s="8">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>8910</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>38610</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="2"/>
+        <v>5791.5</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="3"/>
+        <v>32818.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14">
+      <c r="D10" s="11">
+        <f t="shared" si="4"/>
+        <v>29700</v>
+      </c>
+      <c r="E10" s="17">
         <v>7</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="13">
+      <c r="F10" s="8">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>4455</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>34155</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="6"/>
+        <v>0.13</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>4440.1500000000005</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="3"/>
+        <v>29714.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14">
+      <c r="D11" s="11">
+        <f t="shared" si="4"/>
+        <v>25700</v>
+      </c>
+      <c r="E11" s="17">
         <v>8</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="13">
+      <c r="F11" s="8">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>5140</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>30840</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="6"/>
+        <v>0.13</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="2"/>
+        <v>4009.2000000000003</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="3"/>
+        <v>26830.799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14">
+      <c r="D12" s="11">
+        <f t="shared" si="4"/>
+        <v>25700</v>
+      </c>
+      <c r="E12" s="17">
         <v>3</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="13">
+      <c r="F12" s="8">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>2570</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>28270</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="6"/>
+        <v>0.11</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="2"/>
+        <v>3109.7</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="3"/>
+        <v>25160.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14">
+      <c r="D13" s="11">
+        <f t="shared" si="4"/>
+        <v>31500</v>
+      </c>
+      <c r="E13" s="17">
         <v>10</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="13">
+      <c r="F13" s="8">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="1"/>
+        <v>37800</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="2"/>
+        <v>5670</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="3"/>
+        <v>32130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14">
+      <c r="D14" s="11">
+        <f t="shared" si="4"/>
+        <v>29700</v>
+      </c>
+      <c r="E14" s="17">
         <v>12</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="13">
+      <c r="F14" s="8">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>7425</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="1"/>
+        <v>37125</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="2"/>
+        <v>5568.75</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="3"/>
+        <v>31556.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14">
+      <c r="D15" s="11">
+        <f t="shared" si="4"/>
+        <v>28500</v>
+      </c>
+      <c r="E15" s="17">
         <v>6</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="13">
+      <c r="F15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>4275</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>32775</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.13</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="2"/>
+        <v>4260.75</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="3"/>
+        <v>28514.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14">
+      <c r="D16" s="11">
+        <f t="shared" si="4"/>
+        <v>15670</v>
+      </c>
+      <c r="E16" s="17">
         <v>8</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="13">
+      <c r="F16" s="8">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>3134</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="1"/>
+        <v>18804</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="2"/>
+        <v>1504.32</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="3"/>
+        <v>17299.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14">
+      <c r="D17" s="11">
+        <f t="shared" si="4"/>
+        <v>29700</v>
+      </c>
+      <c r="E17" s="17">
         <v>7</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="13">
+      <c r="F17" s="8">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>4455</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="1"/>
+        <v>34155</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="6"/>
+        <v>0.13</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="2"/>
+        <v>4440.1500000000005</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="3"/>
+        <v>29714.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14">
+      <c r="D18" s="11">
+        <f t="shared" si="4"/>
+        <v>25700</v>
+      </c>
+      <c r="E18" s="17">
         <v>2</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="13">
+      <c r="F18" s="8">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>2570</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="1"/>
+        <v>28270</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="6"/>
+        <v>0.11</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="2"/>
+        <v>3109.7</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="3"/>
+        <v>25160.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14">
+      <c r="D19" s="11">
+        <f>IF(C19="лаборант",15670, IF(C19="инженер",28500, IF(C19="мл.н.сотрудник",25700, IF(C19="ст.н.сотрудник",29700, IF(C19="зав.лабораторией",31500,"")))))</f>
+        <v>28500</v>
+      </c>
+      <c r="E19" s="17">
         <v>14</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="15" t="s">
+      <c r="F19" s="8">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>7125</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>35625</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="2"/>
+        <v>5343.75</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="3"/>
+        <v>30281.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="11">
+        <f>SUM(K5:K19)</f>
+        <v>395715.30999999994</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
   </mergeCells>
+  <conditionalFormatting sqref="E5:E19">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="ОШИБКА" error="СТАЖ НЕ МОЖЕТ БЫТЬ ОТРИЦАТЕЛЬНЫМ!" sqref="E5:E19">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Тарифная ставка" prompt="БУДЬТЕ ВНИМАТЕЛЬНЫ ПРИ ВВОДЕ ТАРИФНОЙ СТАВКИ!" sqref="D5:D19"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
